--- a/data/pca/factorExposure/factorExposure_2017-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.007816319495444497</v>
+        <v>0.01232305083917826</v>
       </c>
       <c r="C2">
-        <v>0.0008592114247643121</v>
+        <v>-0.04003414476032664</v>
       </c>
       <c r="D2">
-        <v>0.02505809389045821</v>
+        <v>0.02870470602790976</v>
       </c>
       <c r="E2">
-        <v>-0.05873607792269634</v>
+        <v>-0.02609446253001643</v>
       </c>
       <c r="F2">
-        <v>-0.02197271042216885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03343730068318395</v>
+      </c>
+      <c r="G2">
+        <v>0.01350051861033168</v>
+      </c>
+      <c r="H2">
+        <v>-0.01562365744048021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07767825693799629</v>
+        <v>0.06516539370760518</v>
       </c>
       <c r="C3">
-        <v>0.004167666177987547</v>
+        <v>-0.078851774218447</v>
       </c>
       <c r="D3">
-        <v>-0.0461283150885034</v>
+        <v>0.01318131473070758</v>
       </c>
       <c r="E3">
-        <v>-0.2350351772931669</v>
+        <v>-0.07404635252681205</v>
       </c>
       <c r="F3">
-        <v>-0.09885953027203941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07410311064776197</v>
+      </c>
+      <c r="G3">
+        <v>0.06763232501035134</v>
+      </c>
+      <c r="H3">
+        <v>-0.007368538400957453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03394644635326615</v>
+        <v>0.05678780269771104</v>
       </c>
       <c r="C4">
-        <v>-0.02134088074041451</v>
+        <v>-0.06242292844301398</v>
       </c>
       <c r="D4">
-        <v>0.03664842410835059</v>
+        <v>0.02155199214234183</v>
       </c>
       <c r="E4">
-        <v>-0.03450027560568283</v>
+        <v>0.00294462198526447</v>
       </c>
       <c r="F4">
-        <v>0.02268320222827635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01783632296187505</v>
+      </c>
+      <c r="G4">
+        <v>0.03733265987481085</v>
+      </c>
+      <c r="H4">
+        <v>0.02929141147142639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.06026622571693937</v>
+        <v>0.0317216826059248</v>
       </c>
       <c r="C6">
-        <v>-0.01316199134464414</v>
+        <v>-0.05665218774863795</v>
       </c>
       <c r="D6">
-        <v>0.0530711629593915</v>
+        <v>0.01601621017209603</v>
       </c>
       <c r="E6">
-        <v>-0.03422291759119629</v>
+        <v>-0.004279156048417844</v>
       </c>
       <c r="F6">
-        <v>0.04731557998054164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01551300908109777</v>
+      </c>
+      <c r="G6">
+        <v>0.02050924688964436</v>
+      </c>
+      <c r="H6">
+        <v>0.00701211860088877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02620208658428795</v>
+        <v>0.017908821797198</v>
       </c>
       <c r="C7">
-        <v>-0.06964664263679034</v>
+        <v>-0.03903585269240203</v>
       </c>
       <c r="D7">
-        <v>-0.006460711706039896</v>
+        <v>0.01245270764286356</v>
       </c>
       <c r="E7">
-        <v>-0.01001619479561962</v>
+        <v>0.01748745671695656</v>
       </c>
       <c r="F7">
-        <v>-0.0161914951411672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008962798054632723</v>
+      </c>
+      <c r="G7">
+        <v>0.0728361632545807</v>
+      </c>
+      <c r="H7">
+        <v>-0.00285301200071924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01553488448558185</v>
+        <v>-0.005594686101900568</v>
       </c>
       <c r="C8">
-        <v>-0.009859436347628996</v>
+        <v>-0.01324876383841851</v>
       </c>
       <c r="D8">
-        <v>0.01640929444284959</v>
+        <v>0.003760395097677213</v>
       </c>
       <c r="E8">
-        <v>-0.02173353620291832</v>
+        <v>-0.01144684968954885</v>
       </c>
       <c r="F8">
-        <v>-0.02070430825575689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02267465504315152</v>
+      </c>
+      <c r="G8">
+        <v>0.02444043907337586</v>
+      </c>
+      <c r="H8">
+        <v>0.01879139623969062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03063990755747994</v>
+        <v>0.02885818931471244</v>
       </c>
       <c r="C9">
-        <v>-0.01360746092738744</v>
+        <v>-0.0426860505523079</v>
       </c>
       <c r="D9">
-        <v>0.02469956226133061</v>
+        <v>0.01499052067014048</v>
       </c>
       <c r="E9">
-        <v>-0.0537427968672269</v>
+        <v>0.0009071654260581916</v>
       </c>
       <c r="F9">
-        <v>0.01797979442502328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01873238063448036</v>
+      </c>
+      <c r="G9">
+        <v>0.02871392477969763</v>
+      </c>
+      <c r="H9">
+        <v>-0.004857010015319528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.08819198329454032</v>
+        <v>0.08512888439374199</v>
       </c>
       <c r="C10">
-        <v>0.0331763130090109</v>
+        <v>0.1844747611862838</v>
       </c>
       <c r="D10">
-        <v>-0.157538257016649</v>
+        <v>-0.01932444715525175</v>
       </c>
       <c r="E10">
-        <v>-0.02194591049009922</v>
+        <v>-0.01594853504125697</v>
       </c>
       <c r="F10">
-        <v>-0.01071932808844144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01159304973831221</v>
+      </c>
+      <c r="G10">
+        <v>0.03547857978302771</v>
+      </c>
+      <c r="H10">
+        <v>-0.02959312971163811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02542214878128379</v>
+        <v>0.03577415260732563</v>
       </c>
       <c r="C11">
-        <v>-0.002009666233509729</v>
+        <v>-0.05372562193494335</v>
       </c>
       <c r="D11">
-        <v>0.04522488261027102</v>
+        <v>0.0007591821606421043</v>
       </c>
       <c r="E11">
-        <v>-0.01472236770848346</v>
+        <v>0.007083602411064916</v>
       </c>
       <c r="F11">
-        <v>0.01909176946061839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02702089167742973</v>
+      </c>
+      <c r="G11">
+        <v>0.009179515233098666</v>
+      </c>
+      <c r="H11">
+        <v>-0.001382943880468749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03236857974279953</v>
+        <v>0.03542974959839919</v>
       </c>
       <c r="C12">
-        <v>-0.009191930589866653</v>
+        <v>-0.04555738137333162</v>
       </c>
       <c r="D12">
-        <v>0.04210813798689117</v>
+        <v>0.00499255150338081</v>
       </c>
       <c r="E12">
-        <v>0.008526522972617903</v>
+        <v>0.01214878829291184</v>
       </c>
       <c r="F12">
-        <v>0.001492934618680298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006821896507647971</v>
+      </c>
+      <c r="G12">
+        <v>0.01406909916205426</v>
+      </c>
+      <c r="H12">
+        <v>-0.003030675723864926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02100258033284045</v>
+        <v>0.01117887233765489</v>
       </c>
       <c r="C13">
-        <v>0.001030438326491148</v>
+        <v>-0.03278285249853857</v>
       </c>
       <c r="D13">
-        <v>0.01655730360545895</v>
+        <v>0.02445585856365793</v>
       </c>
       <c r="E13">
-        <v>-0.04280717300285568</v>
+        <v>-0.01734625179242504</v>
       </c>
       <c r="F13">
-        <v>0.002627220714157624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03140151598226588</v>
+      </c>
+      <c r="G13">
+        <v>0.0255599894987839</v>
+      </c>
+      <c r="H13">
+        <v>0.007292280359648207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01347856148339552</v>
+        <v>0.007467736576389728</v>
       </c>
       <c r="C14">
-        <v>-0.0154722386777533</v>
+        <v>-0.02553023362588906</v>
       </c>
       <c r="D14">
-        <v>0.008310445200516615</v>
+        <v>0.008235223314469457</v>
       </c>
       <c r="E14">
-        <v>-0.01279834041137315</v>
+        <v>0.008951098895468383</v>
       </c>
       <c r="F14">
-        <v>-0.02596292789633222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0006948717590839968</v>
+      </c>
+      <c r="G14">
+        <v>0.03165931398967825</v>
+      </c>
+      <c r="H14">
+        <v>0.01353947872955979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02425298677604582</v>
+        <v>0.03168497712810876</v>
       </c>
       <c r="C16">
-        <v>-0.008038303606832872</v>
+        <v>-0.04339653022784216</v>
       </c>
       <c r="D16">
-        <v>0.04181858149428797</v>
+        <v>0.0005428520290524267</v>
       </c>
       <c r="E16">
-        <v>-0.01651234074421468</v>
+        <v>0.005074390826041361</v>
       </c>
       <c r="F16">
-        <v>0.0250465583069125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01521597254812228</v>
+      </c>
+      <c r="G16">
+        <v>0.01396467378408328</v>
+      </c>
+      <c r="H16">
+        <v>0.0008181323033701571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02269094127145179</v>
+        <v>0.02715940143300621</v>
       </c>
       <c r="C19">
-        <v>-0.00640339518539676</v>
+        <v>-0.05578718422446708</v>
       </c>
       <c r="D19">
-        <v>0.03694324357082699</v>
+        <v>0.01478873158782159</v>
       </c>
       <c r="E19">
-        <v>-0.04933701605118981</v>
+        <v>-0.03067381359686629</v>
       </c>
       <c r="F19">
-        <v>0.02940374143486301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04274935715337342</v>
+      </c>
+      <c r="G19">
+        <v>0.03297355217389564</v>
+      </c>
+      <c r="H19">
+        <v>0.03348926499336168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006739203000699862</v>
+        <v>0.01030354071282343</v>
       </c>
       <c r="C20">
-        <v>-0.002686943166233275</v>
+        <v>-0.03507665733842141</v>
       </c>
       <c r="D20">
-        <v>-0.0005498418883821567</v>
+        <v>0.01291924916297818</v>
       </c>
       <c r="E20">
-        <v>-0.0298414016081401</v>
+        <v>-0.01715678654403682</v>
       </c>
       <c r="F20">
-        <v>-0.01401730274745996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01015165861896491</v>
+      </c>
+      <c r="G20">
+        <v>0.02532302294180234</v>
+      </c>
+      <c r="H20">
+        <v>0.007890233100689098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03862038816725072</v>
+        <v>0.01209528529291096</v>
       </c>
       <c r="C21">
-        <v>-0.02539254728730972</v>
+        <v>-0.03454882833777521</v>
       </c>
       <c r="D21">
-        <v>0.01780500305609886</v>
+        <v>0.01568100510060897</v>
       </c>
       <c r="E21">
-        <v>-0.02383063434848746</v>
+        <v>-0.02239614630828641</v>
       </c>
       <c r="F21">
-        <v>0.01176037223486054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02142320171933604</v>
+      </c>
+      <c r="G21">
+        <v>0.04802032644598531</v>
+      </c>
+      <c r="H21">
+        <v>0.01376248315851251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02276945032358495</v>
+        <v>0.02594484925840776</v>
       </c>
       <c r="C24">
-        <v>-0.004973591910727206</v>
+        <v>-0.04658527490252909</v>
       </c>
       <c r="D24">
-        <v>0.03474697425356613</v>
+        <v>0.005742130264045271</v>
       </c>
       <c r="E24">
-        <v>-0.01404321096490987</v>
+        <v>0.01071462484016011</v>
       </c>
       <c r="F24">
-        <v>0.02194099274625858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02316173137045677</v>
+      </c>
+      <c r="G24">
+        <v>0.01241989557287709</v>
+      </c>
+      <c r="H24">
+        <v>-0.004448572417773178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03762837501943105</v>
+        <v>0.04387664789023587</v>
       </c>
       <c r="C25">
-        <v>-0.003573445897270937</v>
+        <v>-0.05213126393801794</v>
       </c>
       <c r="D25">
-        <v>0.03798027364983345</v>
+        <v>0.009607523732467892</v>
       </c>
       <c r="E25">
-        <v>-0.02861667869600996</v>
+        <v>0.0166312603156098</v>
       </c>
       <c r="F25">
-        <v>0.02354449751728565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01860601371072405</v>
+      </c>
+      <c r="G25">
+        <v>0.0186074251418189</v>
+      </c>
+      <c r="H25">
+        <v>0.003557225501916987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.002877607573416179</v>
+        <v>0.002762223734797858</v>
       </c>
       <c r="C26">
-        <v>-0.008406485235708068</v>
+        <v>-0.00926999848066295</v>
       </c>
       <c r="D26">
-        <v>-0.001797407866373622</v>
+        <v>0.02395551432309418</v>
       </c>
       <c r="E26">
-        <v>-0.02857141530938616</v>
+        <v>-0.002809098583995639</v>
       </c>
       <c r="F26">
-        <v>-0.03039172010211216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00838581127620712</v>
+      </c>
+      <c r="G26">
+        <v>0.0234257582917497</v>
+      </c>
+      <c r="H26">
+        <v>0.006065204392667234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1347394955524251</v>
+        <v>0.1098144595486702</v>
       </c>
       <c r="C28">
-        <v>0.04772288296534757</v>
+        <v>0.2245374306884753</v>
       </c>
       <c r="D28">
-        <v>-0.2282534117204374</v>
+        <v>-0.01074717327318742</v>
       </c>
       <c r="E28">
-        <v>-0.006774000961496731</v>
+        <v>-0.006777724282617449</v>
       </c>
       <c r="F28">
-        <v>-0.01841813162980298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.007774275854511964</v>
+      </c>
+      <c r="G28">
+        <v>0.0509092571726978</v>
+      </c>
+      <c r="H28">
+        <v>-0.01138516286730884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0148740224756811</v>
+        <v>0.0121546132798223</v>
       </c>
       <c r="C29">
-        <v>-0.01091782449713628</v>
+        <v>-0.01875171827330943</v>
       </c>
       <c r="D29">
-        <v>0.006478768066507277</v>
+        <v>0.006948199327906136</v>
       </c>
       <c r="E29">
-        <v>-0.01547731390380924</v>
+        <v>0.006031929184156288</v>
       </c>
       <c r="F29">
-        <v>-0.02108478359217663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.004846232413884815</v>
+      </c>
+      <c r="G29">
+        <v>0.02592946339125901</v>
+      </c>
+      <c r="H29">
+        <v>0.02103906061629079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0429230973797274</v>
+        <v>0.03849676617790751</v>
       </c>
       <c r="C30">
-        <v>0.04304617244282072</v>
+        <v>-0.07348936199932499</v>
       </c>
       <c r="D30">
-        <v>0.07609126179714569</v>
+        <v>0.02663542732509696</v>
       </c>
       <c r="E30">
-        <v>-0.06013806117917756</v>
+        <v>-0.01517381071461491</v>
       </c>
       <c r="F30">
-        <v>0.0005708472010103508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04464982462292864</v>
+      </c>
+      <c r="G30">
+        <v>-0.01143812594511708</v>
+      </c>
+      <c r="H30">
+        <v>0.008939362652398471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04448985869041119</v>
+        <v>0.04268997120275128</v>
       </c>
       <c r="C31">
-        <v>-0.0170699727819486</v>
+        <v>-0.02757681886745508</v>
       </c>
       <c r="D31">
-        <v>0.02333688072125055</v>
+        <v>0.002358973324160423</v>
       </c>
       <c r="E31">
-        <v>0.005065037515067947</v>
+        <v>0.0176098586148844</v>
       </c>
       <c r="F31">
-        <v>-0.020100408250828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0287657376279912</v>
+      </c>
+      <c r="G31">
+        <v>0.02371281918327678</v>
+      </c>
+      <c r="H31">
+        <v>0.001633194065702776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.002533170535924118</v>
+        <v>0.006713489683154173</v>
       </c>
       <c r="C32">
-        <v>-0.02873170550061838</v>
+        <v>-0.03682723140158242</v>
       </c>
       <c r="D32">
-        <v>0.02008359798522544</v>
+        <v>-0.004954664017438111</v>
       </c>
       <c r="E32">
-        <v>-0.03318374796846361</v>
+        <v>-0.01328311089545386</v>
       </c>
       <c r="F32">
-        <v>0.05098191116712873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0756066505263555</v>
+      </c>
+      <c r="G32">
+        <v>0.0537709919377504</v>
+      </c>
+      <c r="H32">
+        <v>0.06806105658656399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03307588585698195</v>
+        <v>0.02953255055698018</v>
       </c>
       <c r="C33">
-        <v>0.01548430286843164</v>
+        <v>-0.05191323226748686</v>
       </c>
       <c r="D33">
-        <v>0.03976579408706454</v>
+        <v>0.0136239001812019</v>
       </c>
       <c r="E33">
-        <v>-0.04036475903793346</v>
+        <v>-0.01451935022730708</v>
       </c>
       <c r="F33">
-        <v>-0.02463979463824053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02532217932756715</v>
+      </c>
+      <c r="G33">
+        <v>0.01623558395653308</v>
+      </c>
+      <c r="H33">
+        <v>-0.01927389978396563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02706224232877591</v>
+        <v>0.04647611145309927</v>
       </c>
       <c r="C34">
-        <v>-0.01669285684877882</v>
+        <v>-0.05335906191841974</v>
       </c>
       <c r="D34">
-        <v>0.04245034151488487</v>
+        <v>-0.00659324952805884</v>
       </c>
       <c r="E34">
-        <v>-0.01499929939168913</v>
+        <v>0.01651896065069743</v>
       </c>
       <c r="F34">
-        <v>0.02135309944706075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02337155166855347</v>
+      </c>
+      <c r="G34">
+        <v>0.02296697293923519</v>
+      </c>
+      <c r="H34">
+        <v>-0.001583083851811111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01678364265344079</v>
+        <v>0.009657380333701306</v>
       </c>
       <c r="C36">
-        <v>-0.003961250287287042</v>
+        <v>-0.004957341095410621</v>
       </c>
       <c r="D36">
-        <v>0.0009120621838379068</v>
+        <v>0.01105409458923893</v>
       </c>
       <c r="E36">
-        <v>-0.01403703006312977</v>
+        <v>0.003157651620290555</v>
       </c>
       <c r="F36">
-        <v>-0.00446506681729531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>7.770692036061529e-05</v>
+      </c>
+      <c r="G36">
+        <v>0.01547971664210708</v>
+      </c>
+      <c r="H36">
+        <v>-0.003606003948571259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02274322575686663</v>
+        <v>0.03218705663473678</v>
       </c>
       <c r="C38">
-        <v>-0.002220443600107741</v>
+        <v>-0.02338367444005777</v>
       </c>
       <c r="D38">
-        <v>0.0197724819036313</v>
+        <v>-0.008614892094005589</v>
       </c>
       <c r="E38">
-        <v>-0.04051657889973458</v>
+        <v>0.004272639650330473</v>
       </c>
       <c r="F38">
-        <v>-0.01150355417312698</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007292882771948762</v>
+      </c>
+      <c r="G38">
+        <v>0.02220942175675652</v>
+      </c>
+      <c r="H38">
+        <v>0.004781798582696626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01769955966508734</v>
+        <v>0.03074233152059241</v>
       </c>
       <c r="C39">
-        <v>-0.01514193539333169</v>
+        <v>-0.08363849573267593</v>
       </c>
       <c r="D39">
-        <v>0.06475398897271574</v>
+        <v>0.01122118487562932</v>
       </c>
       <c r="E39">
-        <v>-0.04701390437622324</v>
+        <v>-0.005139153060187892</v>
       </c>
       <c r="F39">
-        <v>0.03668822975346396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04120904366759909</v>
+      </c>
+      <c r="G39">
+        <v>0.01527230313755051</v>
+      </c>
+      <c r="H39">
+        <v>-0.01377534700828478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02855368071866045</v>
+        <v>0.02006064699482763</v>
       </c>
       <c r="C40">
-        <v>-0.00255126258168346</v>
+        <v>-0.03195340396291415</v>
       </c>
       <c r="D40">
-        <v>0.0419791751468344</v>
+        <v>0.01257201365374086</v>
       </c>
       <c r="E40">
-        <v>-0.03482364253751042</v>
+        <v>-0.01022400542691367</v>
       </c>
       <c r="F40">
-        <v>0.02646110283707463</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02387142554939587</v>
+      </c>
+      <c r="G40">
+        <v>0.01637277151517366</v>
+      </c>
+      <c r="H40">
+        <v>-0.001489601876467203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01247915345074019</v>
+        <v>0.01073168074675263</v>
       </c>
       <c r="C41">
-        <v>0.0008706731523731566</v>
+        <v>0.002794265976440299</v>
       </c>
       <c r="D41">
-        <v>-0.009474531718228466</v>
+        <v>0.0031423394858191</v>
       </c>
       <c r="E41">
-        <v>-0.003515375867296628</v>
+        <v>0.008907936276737482</v>
       </c>
       <c r="F41">
-        <v>-0.00980178820219837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00032057768986157</v>
+      </c>
+      <c r="G41">
+        <v>0.01045149580107896</v>
+      </c>
+      <c r="H41">
+        <v>0.001311784934718797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1412636121239682</v>
+        <v>0.04150533172945726</v>
       </c>
       <c r="C42">
-        <v>0.09059679667048083</v>
+        <v>-0.0568225362081365</v>
       </c>
       <c r="D42">
-        <v>0.1541432497435052</v>
+        <v>0.1032486475543099</v>
       </c>
       <c r="E42">
-        <v>-0.217761151548739</v>
+        <v>-0.08205439539894346</v>
       </c>
       <c r="F42">
-        <v>-0.1492066612468217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1201798425495288</v>
+      </c>
+      <c r="G42">
+        <v>-0.2249374981885869</v>
+      </c>
+      <c r="H42">
+        <v>-0.9271149807070959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01745480841025043</v>
+        <v>0.02663787830229893</v>
       </c>
       <c r="C43">
-        <v>0.00212689000352473</v>
+        <v>-0.006483569063944076</v>
       </c>
       <c r="D43">
-        <v>-0.004342805171828664</v>
+        <v>0.003134693979938649</v>
       </c>
       <c r="E43">
-        <v>-0.006739655573119703</v>
+        <v>0.005635535361845774</v>
       </c>
       <c r="F43">
-        <v>-0.01839340553668237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003202490733799373</v>
+      </c>
+      <c r="G43">
+        <v>0.01297907520439729</v>
+      </c>
+      <c r="H43">
+        <v>-0.001103026647444333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.00747103135324057</v>
+        <v>0.01637443327085899</v>
       </c>
       <c r="C44">
-        <v>-0.0130269252285898</v>
+        <v>-0.04911426933387629</v>
       </c>
       <c r="D44">
-        <v>0.01701982485641865</v>
+        <v>0.006469592042241303</v>
       </c>
       <c r="E44">
-        <v>-0.07339312260905195</v>
+        <v>-0.01604131843586388</v>
       </c>
       <c r="F44">
-        <v>0.006727673884852122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02539960346800913</v>
+      </c>
+      <c r="G44">
+        <v>0.03088787034984373</v>
+      </c>
+      <c r="H44">
+        <v>-0.01594674733786494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.006765484323966728</v>
+        <v>0.0004810678592475091</v>
       </c>
       <c r="C46">
-        <v>-0.006698396043051834</v>
+        <v>-0.01581282434312233</v>
       </c>
       <c r="D46">
-        <v>0.02520712676472878</v>
+        <v>0.01149284724780491</v>
       </c>
       <c r="E46">
-        <v>-0.03411725828934566</v>
+        <v>0.007795226177572723</v>
       </c>
       <c r="F46">
-        <v>-0.02651671300210237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.008137317869115899</v>
+      </c>
+      <c r="G46">
+        <v>0.01937198759949389</v>
+      </c>
+      <c r="H46">
+        <v>0.02073894972766897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07025949069274903</v>
+        <v>0.07287312889613233</v>
       </c>
       <c r="C47">
-        <v>-0.00485608063700204</v>
+        <v>-0.06031771293533452</v>
       </c>
       <c r="D47">
-        <v>0.03707069654404779</v>
+        <v>-0.005705928317441198</v>
       </c>
       <c r="E47">
-        <v>0.03502143986252135</v>
+        <v>0.01945981287535047</v>
       </c>
       <c r="F47">
-        <v>-0.04315624771154934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.06068512597658463</v>
+      </c>
+      <c r="G47">
+        <v>0.01363182992628799</v>
+      </c>
+      <c r="H47">
+        <v>0.003756923626891936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02645939865048691</v>
+        <v>0.01499174100492719</v>
       </c>
       <c r="C48">
-        <v>-0.004742764800124703</v>
+        <v>-0.0104268567992016</v>
       </c>
       <c r="D48">
-        <v>0.006254709411386975</v>
+        <v>0.0008141978515902854</v>
       </c>
       <c r="E48">
-        <v>-0.01430188923433775</v>
+        <v>0.008503651505214748</v>
       </c>
       <c r="F48">
-        <v>-0.003834324723831126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01293557604723864</v>
+      </c>
+      <c r="G48">
+        <v>0.01731006885089794</v>
+      </c>
+      <c r="H48">
+        <v>4.988689924725469e-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07010579392803926</v>
+        <v>0.0759123346282092</v>
       </c>
       <c r="C50">
-        <v>-0.03610954802757332</v>
+        <v>-0.0617705529638146</v>
       </c>
       <c r="D50">
-        <v>0.05107657925208726</v>
+        <v>-0.004534202552563119</v>
       </c>
       <c r="E50">
-        <v>0.01396869652219652</v>
+        <v>0.02139289741577306</v>
       </c>
       <c r="F50">
-        <v>-0.07255006947267491</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.06003634075706544</v>
+      </c>
+      <c r="G50">
+        <v>0.03758301211037676</v>
+      </c>
+      <c r="H50">
+        <v>0.005451444637564547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01400752618952507</v>
+        <v>0.01678153926297674</v>
       </c>
       <c r="C51">
-        <v>-0.006737444373369274</v>
+        <v>-0.0290437413041434</v>
       </c>
       <c r="D51">
-        <v>-0.0172631709128388</v>
+        <v>0.008628568072006338</v>
       </c>
       <c r="E51">
-        <v>-0.05625808887835896</v>
+        <v>-0.006532566077774692</v>
       </c>
       <c r="F51">
-        <v>0.002048856756753606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03624343732337907</v>
+      </c>
+      <c r="G51">
+        <v>0.03790016647261196</v>
+      </c>
+      <c r="H51">
+        <v>0.002814128700573142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09134650561120662</v>
+        <v>0.09843686830467364</v>
       </c>
       <c r="C53">
-        <v>-0.02344881309360962</v>
+        <v>-0.07460926211682153</v>
       </c>
       <c r="D53">
-        <v>0.0641123499921622</v>
+        <v>-0.006809347147028081</v>
       </c>
       <c r="E53">
-        <v>0.06002949565908878</v>
+        <v>0.04094141585503974</v>
       </c>
       <c r="F53">
-        <v>-0.02519153683502743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06749454084919664</v>
+      </c>
+      <c r="G53">
+        <v>0.01516935020292653</v>
+      </c>
+      <c r="H53">
+        <v>-0.003679834050935567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02569195727676794</v>
+        <v>0.02738538044568946</v>
       </c>
       <c r="C54">
-        <v>-0.009539475250073587</v>
+        <v>-0.004142151485643642</v>
       </c>
       <c r="D54">
-        <v>0.003223360530889165</v>
+        <v>-0.004523750656221692</v>
       </c>
       <c r="E54">
-        <v>0.002282634168605831</v>
+        <v>0.001319085792061388</v>
       </c>
       <c r="F54">
-        <v>-0.005325809622796474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003561049079710848</v>
+      </c>
+      <c r="G54">
+        <v>0.02620199379497453</v>
+      </c>
+      <c r="H54">
+        <v>0.01787000638776058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0655710370675462</v>
+        <v>0.07326932082525836</v>
       </c>
       <c r="C55">
-        <v>-0.01544235331879941</v>
+        <v>-0.06728574770378994</v>
       </c>
       <c r="D55">
-        <v>0.07442016389223842</v>
+        <v>-0.005699356831204309</v>
       </c>
       <c r="E55">
-        <v>0.04135110489516487</v>
+        <v>0.03130933988883396</v>
       </c>
       <c r="F55">
-        <v>-0.04425689016432388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06235230182101004</v>
+      </c>
+      <c r="G55">
+        <v>0.004389626223501569</v>
+      </c>
+      <c r="H55">
+        <v>0.004195302742570713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.129083678048044</v>
+        <v>0.147500389542206</v>
       </c>
       <c r="C56">
-        <v>-0.02027769749622409</v>
+        <v>-0.09604936567027904</v>
       </c>
       <c r="D56">
-        <v>0.09344039376392856</v>
+        <v>-0.01576366960308172</v>
       </c>
       <c r="E56">
-        <v>0.08866805190489727</v>
+        <v>0.04405994847973834</v>
       </c>
       <c r="F56">
-        <v>-0.0186545359777795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.103932239045222</v>
+      </c>
+      <c r="G56">
+        <v>-0.0058865626776739</v>
+      </c>
+      <c r="H56">
+        <v>-0.003634470372072906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03588791534820693</v>
+        <v>0.0149061687193645</v>
       </c>
       <c r="C57">
-        <v>0.002111193598552641</v>
+        <v>-0.01236259022509</v>
       </c>
       <c r="D57">
-        <v>0.03021478427513268</v>
+        <v>0.02372654089425395</v>
       </c>
       <c r="E57">
-        <v>-0.04391321350352222</v>
+        <v>-0.03120386115819809</v>
       </c>
       <c r="F57">
-        <v>0.003079728114527059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01600246228705814</v>
+      </c>
+      <c r="G57">
+        <v>0.02253496550732679</v>
+      </c>
+      <c r="H57">
+        <v>-0.008588236328652223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1505365839060875</v>
+        <v>0.07057370458133316</v>
       </c>
       <c r="C58">
-        <v>0.1179217589536697</v>
+        <v>-0.07539430257401451</v>
       </c>
       <c r="D58">
-        <v>0.1623241528597779</v>
+        <v>0.01937008053511196</v>
       </c>
       <c r="E58">
-        <v>-0.5553501936119591</v>
+        <v>-0.945744552850054</v>
       </c>
       <c r="F58">
-        <v>-0.581264956169952</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2244231169698423</v>
+      </c>
+      <c r="G58">
+        <v>0.07522486103182321</v>
+      </c>
+      <c r="H58">
+        <v>0.09978739051623073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1384850828701415</v>
+        <v>0.1500561996683648</v>
       </c>
       <c r="C59">
-        <v>0.06602081136792262</v>
+        <v>0.2150074815150365</v>
       </c>
       <c r="D59">
-        <v>-0.1919524328137124</v>
+        <v>-0.01826639352109468</v>
       </c>
       <c r="E59">
-        <v>-0.04268565410007846</v>
+        <v>-0.01458409312323394</v>
       </c>
       <c r="F59">
-        <v>0.04609145877734374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01448405055651804</v>
+      </c>
+      <c r="G59">
+        <v>0.01794534345948699</v>
+      </c>
+      <c r="H59">
+        <v>0.002172440901937018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2109460687667892</v>
+        <v>0.2935918416072661</v>
       </c>
       <c r="C60">
-        <v>0.04027455712329846</v>
+        <v>-0.08371989159726717</v>
       </c>
       <c r="D60">
-        <v>0.03668202641752705</v>
+        <v>0.005093949698046483</v>
       </c>
       <c r="E60">
-        <v>-0.1801018830070496</v>
+        <v>-0.02326706052596565</v>
       </c>
       <c r="F60">
-        <v>0.3872626062761078</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3937957531566809</v>
+      </c>
+      <c r="G60">
+        <v>-0.04107370043362773</v>
+      </c>
+      <c r="H60">
+        <v>0.06876100498044176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03113273581959156</v>
+        <v>0.03191071304408208</v>
       </c>
       <c r="C61">
-        <v>-0.008547707974411095</v>
+        <v>-0.06415128886621214</v>
       </c>
       <c r="D61">
-        <v>0.05709041244029749</v>
+        <v>0.004497863281687987</v>
       </c>
       <c r="E61">
-        <v>-0.02871439997882769</v>
+        <v>-0.0006500328640635441</v>
       </c>
       <c r="F61">
-        <v>0.04639226735178488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02660156430208428</v>
+      </c>
+      <c r="G61">
+        <v>0.01607378075345532</v>
+      </c>
+      <c r="H61">
+        <v>0.001927439312948412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01589865111139374</v>
+        <v>0.0129254905581518</v>
       </c>
       <c r="C63">
-        <v>-0.008382037711649481</v>
+        <v>-0.0278672930673279</v>
       </c>
       <c r="D63">
-        <v>0.0220095374308381</v>
+        <v>0.007510616197835216</v>
       </c>
       <c r="E63">
-        <v>-0.002899291040984406</v>
+        <v>0.01818397779933213</v>
       </c>
       <c r="F63">
-        <v>-0.02408402778390495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005771325689470951</v>
+      </c>
+      <c r="G63">
+        <v>0.02062392277428784</v>
+      </c>
+      <c r="H63">
+        <v>0.003182664568047687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04811737791896075</v>
+        <v>0.04682576490364971</v>
       </c>
       <c r="C64">
-        <v>-0.008614588849000258</v>
+        <v>-0.03600727934307614</v>
       </c>
       <c r="D64">
-        <v>0.04252706664140843</v>
+        <v>0.004017005577048936</v>
       </c>
       <c r="E64">
-        <v>-0.01445213219349883</v>
+        <v>0.01612485694000475</v>
       </c>
       <c r="F64">
-        <v>0.005257257669036102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01436895321775538</v>
+      </c>
+      <c r="G64">
+        <v>0.01314658523675668</v>
+      </c>
+      <c r="H64">
+        <v>-0.03478022737277338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06848975057888074</v>
+        <v>0.07837484940096696</v>
       </c>
       <c r="C65">
-        <v>-0.01317736325203537</v>
+        <v>-0.06719837928924595</v>
       </c>
       <c r="D65">
-        <v>0.05695031818539213</v>
+        <v>0.01447194596439633</v>
       </c>
       <c r="E65">
-        <v>-0.03079284468244487</v>
+        <v>0.0006201942260313714</v>
       </c>
       <c r="F65">
-        <v>0.05464020358397323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0373718406935277</v>
+      </c>
+      <c r="G65">
+        <v>0.008687377578774833</v>
+      </c>
+      <c r="H65">
+        <v>0.01494004117784878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0392314933941038</v>
+        <v>0.05212959547541103</v>
       </c>
       <c r="C66">
-        <v>0.0008609323060050204</v>
+        <v>-0.1183341828093308</v>
       </c>
       <c r="D66">
-        <v>0.0865757749715743</v>
+        <v>0.01028098214975843</v>
       </c>
       <c r="E66">
-        <v>-0.02656139149502158</v>
+        <v>-0.006136082620424925</v>
       </c>
       <c r="F66">
-        <v>0.04593509873390116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0476310618450694</v>
+      </c>
+      <c r="G66">
+        <v>0.003749927705690833</v>
+      </c>
+      <c r="H66">
+        <v>0.008273433578253246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03970241306552012</v>
+        <v>0.05764422028877677</v>
       </c>
       <c r="C67">
-        <v>4.876711715712079e-05</v>
+        <v>-0.02598451594218764</v>
       </c>
       <c r="D67">
-        <v>0.02050801895139032</v>
+        <v>-0.007556927992670086</v>
       </c>
       <c r="E67">
-        <v>-0.02256300608834041</v>
+        <v>0.01107298896872804</v>
       </c>
       <c r="F67">
-        <v>-0.0009390901623132742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.00650036838558238</v>
+      </c>
+      <c r="G67">
+        <v>0.02204100496316468</v>
+      </c>
+      <c r="H67">
+        <v>0.008911015354719862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1207544991287793</v>
+        <v>0.1203873060280295</v>
       </c>
       <c r="C68">
-        <v>0.06444153577487761</v>
+        <v>0.2686096663326214</v>
       </c>
       <c r="D68">
-        <v>-0.2118257770754579</v>
+        <v>0.0004794538594348376</v>
       </c>
       <c r="E68">
-        <v>-0.008674884726656876</v>
+        <v>-0.01303603570334891</v>
       </c>
       <c r="F68">
-        <v>0.005831768316881264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01705010028324525</v>
+      </c>
+      <c r="G68">
+        <v>0.01817772416411686</v>
+      </c>
+      <c r="H68">
+        <v>-0.01539442029369354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05366992880164723</v>
+        <v>0.07545498826884559</v>
       </c>
       <c r="C69">
-        <v>-0.0085037125790479</v>
+        <v>-0.05834620082645759</v>
       </c>
       <c r="D69">
-        <v>0.04368378927499964</v>
+        <v>-0.01015237092881205</v>
       </c>
       <c r="E69">
-        <v>0.02624175169413244</v>
+        <v>0.03634525825556819</v>
       </c>
       <c r="F69">
-        <v>-0.01981283798290501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03796465494166029</v>
+      </c>
+      <c r="G69">
+        <v>0.01130191841342553</v>
+      </c>
+      <c r="H69">
+        <v>0.01191327628378125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1105799275116735</v>
+        <v>0.1223214349642749</v>
       </c>
       <c r="C71">
-        <v>0.04789076201347454</v>
+        <v>0.2251733970873063</v>
       </c>
       <c r="D71">
-        <v>-0.2052783089950457</v>
+        <v>-0.008510531062139334</v>
       </c>
       <c r="E71">
-        <v>-0.02039896186645006</v>
+        <v>-0.01945066970511844</v>
       </c>
       <c r="F71">
-        <v>-0.04557648328857403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02425650933316696</v>
+      </c>
+      <c r="G71">
+        <v>0.03142671925078078</v>
+      </c>
+      <c r="H71">
+        <v>-0.0319669900616496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1228939475380685</v>
+        <v>0.08317529948798734</v>
       </c>
       <c r="C72">
-        <v>-0.005954477506549344</v>
+        <v>-0.0820931317858984</v>
       </c>
       <c r="D72">
-        <v>0.1430411827001723</v>
+        <v>-0.009874199476181103</v>
       </c>
       <c r="E72">
-        <v>-0.1229985653771287</v>
+        <v>0.02102036412373052</v>
       </c>
       <c r="F72">
-        <v>0.1786869468550404</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03591447612062913</v>
+      </c>
+      <c r="G72">
+        <v>-0.008222377168609584</v>
+      </c>
+      <c r="H72">
+        <v>0.01025349391622406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2597209173385981</v>
+        <v>0.3977600570223696</v>
       </c>
       <c r="C73">
-        <v>0.09409975499318755</v>
+        <v>-0.101010150829568</v>
       </c>
       <c r="D73">
-        <v>0.08730811322201004</v>
+        <v>0.00921260255774479</v>
       </c>
       <c r="E73">
-        <v>-0.2604525742969465</v>
+        <v>-0.07651147189214841</v>
       </c>
       <c r="F73">
-        <v>0.3874181161756649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5305248837426473</v>
+      </c>
+      <c r="G73">
+        <v>-0.08688994587713481</v>
+      </c>
+      <c r="H73">
+        <v>-0.05511739175806202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1196138000074447</v>
+        <v>0.1182158013601519</v>
       </c>
       <c r="C74">
-        <v>-0.01089130191506663</v>
+        <v>-0.1155185885010429</v>
       </c>
       <c r="D74">
-        <v>0.1004386358715454</v>
+        <v>-0.01155813944918674</v>
       </c>
       <c r="E74">
-        <v>0.07707334907464751</v>
+        <v>0.0398029560338535</v>
       </c>
       <c r="F74">
-        <v>-0.01385438039941722</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07425490773967765</v>
+      </c>
+      <c r="G74">
+        <v>0.006453715043237011</v>
+      </c>
+      <c r="H74">
+        <v>0.001079322013737218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2402202288925361</v>
+        <v>0.2594563875894357</v>
       </c>
       <c r="C75">
-        <v>-0.01157888460792121</v>
+        <v>-0.1368868436396185</v>
       </c>
       <c r="D75">
-        <v>0.1505482044313348</v>
+        <v>-0.03275192342050014</v>
       </c>
       <c r="E75">
-        <v>0.159754566116401</v>
+        <v>0.06183180479798918</v>
       </c>
       <c r="F75">
-        <v>-0.01582079344902051</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2195031004450941</v>
+      </c>
+      <c r="G75">
+        <v>-0.0373760552610214</v>
+      </c>
+      <c r="H75">
+        <v>0.0003723614031169103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2265840016155962</v>
+        <v>0.1470936767807491</v>
       </c>
       <c r="C76">
-        <v>-0.03388566346376438</v>
+        <v>-0.1181403506319571</v>
       </c>
       <c r="D76">
-        <v>0.1540765823384694</v>
+        <v>-0.02419257739468342</v>
       </c>
       <c r="E76">
-        <v>0.2306645852896207</v>
+        <v>0.07109537585039431</v>
       </c>
       <c r="F76">
-        <v>-0.02956316834406595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1443180286447542</v>
+      </c>
+      <c r="G76">
+        <v>-0.005045379736730432</v>
+      </c>
+      <c r="H76">
+        <v>0.006393841370225131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04067493392781091</v>
+        <v>0.05493136372117557</v>
       </c>
       <c r="C77">
-        <v>-0.007076512580631902</v>
+        <v>-0.0631478762675295</v>
       </c>
       <c r="D77">
-        <v>0.05688018834050941</v>
+        <v>0.01176652146615193</v>
       </c>
       <c r="E77">
-        <v>-0.06724315004118329</v>
+        <v>-0.02851278369998795</v>
       </c>
       <c r="F77">
-        <v>-0.1437441316666545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.005813977121816796</v>
+      </c>
+      <c r="G77">
+        <v>0.03611416432297127</v>
+      </c>
+      <c r="H77">
+        <v>-0.0222338912740558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02752615684699866</v>
+        <v>0.04349204402892523</v>
       </c>
       <c r="C78">
-        <v>-0.01160117340741664</v>
+        <v>-0.05371230272610201</v>
       </c>
       <c r="D78">
-        <v>0.04440840274578246</v>
+        <v>0.00461463095896455</v>
       </c>
       <c r="E78">
-        <v>-0.05494043589969531</v>
+        <v>-0.01278797566755792</v>
       </c>
       <c r="F78">
-        <v>0.02896598363995532</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04436469104842849</v>
+      </c>
+      <c r="G78">
+        <v>0.02652239745781808</v>
+      </c>
+      <c r="H78">
+        <v>0.009979910233324186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.196874423692022</v>
+        <v>0.0673795355346616</v>
       </c>
       <c r="C80">
-        <v>-0.9324279231748676</v>
+        <v>-0.0807203842000834</v>
       </c>
       <c r="D80">
-        <v>-0.194956258918641</v>
+        <v>0.01234308625732924</v>
       </c>
       <c r="E80">
-        <v>-0.1339487057032524</v>
+        <v>0.0838968177494136</v>
       </c>
       <c r="F80">
-        <v>-0.03179748192754555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02555137478475789</v>
+      </c>
+      <c r="G80">
+        <v>0.9231324956256021</v>
+      </c>
+      <c r="H80">
+        <v>-0.2115281385988034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1837067201434316</v>
+        <v>0.149714165861107</v>
       </c>
       <c r="C81">
-        <v>-0.02076146677073512</v>
+        <v>-0.08821894556355807</v>
       </c>
       <c r="D81">
-        <v>0.112110819339253</v>
+        <v>-0.0182890133132524</v>
       </c>
       <c r="E81">
-        <v>0.1235176241636356</v>
+        <v>0.04468384987707194</v>
       </c>
       <c r="F81">
-        <v>-0.05213890186019179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.139609324880922</v>
+      </c>
+      <c r="G81">
+        <v>0.002405389044649312</v>
+      </c>
+      <c r="H81">
+        <v>0.003722057999207976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03950415800052154</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03042051145033421</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002232868630962851</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01937035149351733</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002372062714339227</v>
+      </c>
+      <c r="G82">
+        <v>-0.002610981908639482</v>
+      </c>
+      <c r="H82">
+        <v>0.01711263307441825</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03385252682418424</v>
+        <v>0.03026347088491189</v>
       </c>
       <c r="C83">
-        <v>0.002556918150016525</v>
+        <v>-0.01992743346703158</v>
       </c>
       <c r="D83">
-        <v>0.01214515807736184</v>
+        <v>0.004705500637918338</v>
       </c>
       <c r="E83">
-        <v>-0.04439045447169927</v>
+        <v>-0.02279915668206112</v>
       </c>
       <c r="F83">
-        <v>-0.0005064730172407342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02439363455577172</v>
+      </c>
+      <c r="G83">
+        <v>0.02616315518619788</v>
+      </c>
+      <c r="H83">
+        <v>0.009594976555175615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2268456839064866</v>
+        <v>0.2459754591523208</v>
       </c>
       <c r="C85">
-        <v>-0.007161826570132632</v>
+        <v>-0.1467510966726752</v>
       </c>
       <c r="D85">
-        <v>0.1847811740029066</v>
+        <v>-0.02191257752107138</v>
       </c>
       <c r="E85">
-        <v>0.1716274253829305</v>
+        <v>0.1040242641573156</v>
       </c>
       <c r="F85">
-        <v>-0.0376888542778622</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2072277175407282</v>
+      </c>
+      <c r="G85">
+        <v>-0.06991737432257515</v>
+      </c>
+      <c r="H85">
+        <v>-0.003720760487431233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0141344396579342</v>
+        <v>0.008817724716033525</v>
       </c>
       <c r="C86">
-        <v>-0.009665301039737381</v>
+        <v>-0.02310942147501139</v>
       </c>
       <c r="D86">
-        <v>0.02116034790663929</v>
+        <v>0.009546754058734345</v>
       </c>
       <c r="E86">
-        <v>-0.05546593682757142</v>
+        <v>-0.01418771316759035</v>
       </c>
       <c r="F86">
-        <v>-0.01652961330564061</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02318887548548128</v>
+      </c>
+      <c r="G86">
+        <v>0.05055621727664604</v>
+      </c>
+      <c r="H86">
+        <v>-0.03432811892650236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02753035733720989</v>
+        <v>0.01715847542960029</v>
       </c>
       <c r="C87">
-        <v>-0.007797415229076309</v>
+        <v>-0.02682998797784278</v>
       </c>
       <c r="D87">
-        <v>0.03080924028405411</v>
+        <v>0.01097475890519366</v>
       </c>
       <c r="E87">
-        <v>-0.1020670092561565</v>
+        <v>-0.07429102825390858</v>
       </c>
       <c r="F87">
-        <v>0.02138721609830901</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06187325011540511</v>
+      </c>
+      <c r="G87">
+        <v>0.04182182122789441</v>
+      </c>
+      <c r="H87">
+        <v>-0.01253788967328865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05052272988354474</v>
+        <v>0.08490426844945613</v>
       </c>
       <c r="C88">
-        <v>0.006962815928684844</v>
+        <v>-0.05057485059341849</v>
       </c>
       <c r="D88">
-        <v>0.006763303100331916</v>
+        <v>0.02034194396444954</v>
       </c>
       <c r="E88">
-        <v>0.006273466648953055</v>
+        <v>0.01655778875696296</v>
       </c>
       <c r="F88">
-        <v>0.01116943158871447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.007136224817737289</v>
+      </c>
+      <c r="G88">
+        <v>0.02029743192253164</v>
+      </c>
+      <c r="H88">
+        <v>0.02366742699241852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2226905114796463</v>
+        <v>0.2170697526043678</v>
       </c>
       <c r="C89">
-        <v>0.1251152994844751</v>
+        <v>0.3781639541737191</v>
       </c>
       <c r="D89">
-        <v>-0.3584469622526902</v>
+        <v>-0.01125022912841193</v>
       </c>
       <c r="E89">
-        <v>0.003695734423536902</v>
+        <v>0.01041651354569171</v>
       </c>
       <c r="F89">
-        <v>-0.002147217369246855</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02176595107853085</v>
+      </c>
+      <c r="G89">
+        <v>0.02872118597801823</v>
+      </c>
+      <c r="H89">
+        <v>0.005092888322501155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1354247182433191</v>
+        <v>0.1789880916258597</v>
       </c>
       <c r="C90">
-        <v>0.1064572342108941</v>
+        <v>0.3382894372113099</v>
       </c>
       <c r="D90">
-        <v>-0.3029543818051119</v>
+        <v>-0.01322260217493836</v>
       </c>
       <c r="E90">
-        <v>0.05298864196824327</v>
+        <v>-0.003783726520585607</v>
       </c>
       <c r="F90">
-        <v>-0.05338552306473661</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03865644547425083</v>
+      </c>
+      <c r="G90">
+        <v>0.002578376926295681</v>
+      </c>
+      <c r="H90">
+        <v>-0.009472543421075487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2512570584434606</v>
+        <v>0.2142503966071907</v>
       </c>
       <c r="C91">
-        <v>-0.01140828507159787</v>
+        <v>-0.1303639837617175</v>
       </c>
       <c r="D91">
-        <v>0.1848277283469683</v>
+        <v>-0.02719636283862509</v>
       </c>
       <c r="E91">
-        <v>0.2362420487530327</v>
+        <v>0.08636772486951286</v>
       </c>
       <c r="F91">
-        <v>-0.03753840107112386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1926432401800803</v>
+      </c>
+      <c r="G91">
+        <v>-0.02458208103524356</v>
+      </c>
+      <c r="H91">
+        <v>0.00160499022641178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2942213508895864</v>
+        <v>0.2152596403619391</v>
       </c>
       <c r="C92">
-        <v>0.1028829072169828</v>
+        <v>0.2727470714310686</v>
       </c>
       <c r="D92">
-        <v>-0.2742541763511812</v>
+        <v>-0.05723956155229606</v>
       </c>
       <c r="E92">
-        <v>0.1434206631457047</v>
+        <v>0.0003127319745423605</v>
       </c>
       <c r="F92">
-        <v>-0.213808825712419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1398821225690246</v>
+      </c>
+      <c r="G92">
+        <v>0.05110352456710787</v>
+      </c>
+      <c r="H92">
+        <v>0.002152711760418125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2000643763202896</v>
+        <v>0.2045155475118652</v>
       </c>
       <c r="C93">
-        <v>0.1391461511148735</v>
+        <v>0.3362789513285029</v>
       </c>
       <c r="D93">
-        <v>-0.3504773820305452</v>
+        <v>-0.02023650268471027</v>
       </c>
       <c r="E93">
-        <v>0.006858266828377236</v>
+        <v>-0.01693797850491218</v>
       </c>
       <c r="F93">
-        <v>0.01479867256115252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.008105606088972888</v>
+      </c>
+      <c r="G93">
+        <v>-0.001204928351233163</v>
+      </c>
+      <c r="H93">
+        <v>-0.03328320240808365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3021417296392305</v>
+        <v>0.2894441367162547</v>
       </c>
       <c r="C94">
-        <v>0.02596772198195364</v>
+        <v>-0.1466026528540995</v>
       </c>
       <c r="D94">
-        <v>0.1704291776459241</v>
+        <v>-0.01628763610448888</v>
       </c>
       <c r="E94">
-        <v>0.2544968678542998</v>
+        <v>0.09756991892251915</v>
       </c>
       <c r="F94">
-        <v>-0.1181000719065185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3717158951526629</v>
+      </c>
+      <c r="G94">
+        <v>-0.1351629476519369</v>
+      </c>
+      <c r="H94">
+        <v>0.2164648348475803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08265791957039101</v>
+        <v>0.07588362332872076</v>
       </c>
       <c r="C95">
-        <v>0.07290020291446374</v>
+        <v>-0.08204266191360846</v>
       </c>
       <c r="D95">
-        <v>0.05849354168566703</v>
+        <v>-0.007595288677701698</v>
       </c>
       <c r="E95">
-        <v>0.004646954759654282</v>
+        <v>-0.07392259124690748</v>
       </c>
       <c r="F95">
-        <v>0.02716729518594329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1448458066782401</v>
+      </c>
+      <c r="G95">
+        <v>-0.06000601357712313</v>
+      </c>
+      <c r="H95">
+        <v>-0.02957809376572224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2131954706030071</v>
+        <v>0.2158699708573808</v>
       </c>
       <c r="C98">
-        <v>0.06233546348521081</v>
+        <v>-0.04497619515004259</v>
       </c>
       <c r="D98">
-        <v>0.02625724633361301</v>
+        <v>-0.02043844454126168</v>
       </c>
       <c r="E98">
-        <v>-0.2676324690381485</v>
+        <v>-0.07142558805261744</v>
       </c>
       <c r="F98">
-        <v>0.3663471939565131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2587040433896657</v>
+      </c>
+      <c r="G98">
+        <v>-0.02586947528478553</v>
+      </c>
+      <c r="H98">
+        <v>-0.03759148603408893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0280226241696588</v>
+        <v>0.01374073655732822</v>
       </c>
       <c r="C101">
-        <v>-0.002388265441406921</v>
+        <v>-0.01998912866424914</v>
       </c>
       <c r="D101">
-        <v>0.02047631421185149</v>
+        <v>0.008098001743392338</v>
       </c>
       <c r="E101">
-        <v>-0.1147496027917594</v>
+        <v>-0.03220575987200294</v>
       </c>
       <c r="F101">
-        <v>-0.1694993065508183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02383170393970932</v>
+      </c>
+      <c r="G101">
+        <v>0.03310384794876684</v>
+      </c>
+      <c r="H101">
+        <v>0.02209128480264617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1295909310813868</v>
+        <v>0.1251108936033966</v>
       </c>
       <c r="C102">
-        <v>-0.006868951800614885</v>
+        <v>-0.0772114010987463</v>
       </c>
       <c r="D102">
-        <v>0.08452273325514029</v>
+        <v>-0.001365213314553597</v>
       </c>
       <c r="E102">
-        <v>0.1058251033540132</v>
+        <v>0.04603396900701155</v>
       </c>
       <c r="F102">
-        <v>-0.0373934819304015</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0634026154300807</v>
+      </c>
+      <c r="G102">
+        <v>-0.01961988914553797</v>
+      </c>
+      <c r="H102">
+        <v>-0.01112102894434374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0312307844121622</v>
+        <v>0.006445873788953661</v>
       </c>
       <c r="C103">
-        <v>-0.01698201740044872</v>
+        <v>-0.00604474575044732</v>
       </c>
       <c r="D103">
-        <v>0.02472990132562671</v>
+        <v>0.0002014374107468802</v>
       </c>
       <c r="E103">
-        <v>0.0150849348566712</v>
+        <v>0.002452308150752088</v>
       </c>
       <c r="F103">
-        <v>-0.004175106045157247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01115913344060967</v>
+      </c>
+      <c r="G103">
+        <v>0.01249103120607265</v>
+      </c>
+      <c r="H103">
+        <v>-0.006234099638867817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.04738169897030698</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04733635470865374</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9855566922767356</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04292096702233073</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03647403979912744</v>
+      </c>
+      <c r="G104">
+        <v>-0.0009932931374869248</v>
+      </c>
+      <c r="H104">
+        <v>0.0984470510052096</v>
       </c>
     </row>
   </sheetData>
